--- a/tests/00_Python_template_v2.xlsx
+++ b/tests/00_Python_template_v2.xlsx
@@ -5,17 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/N2O Research/N2O_isotopocule_data_corrections/validation/8_revisions/scale normalization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/N2O Research/N2O_isotopocule_data_corrections/pyisotopomer/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4047C-1036-A644-8142-85757392D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04069BFE-A368-3B4C-B763-F5FCBB318577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="15820" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
+    <workbookView xWindow="-31580" yWindow="-2360" windowWidth="28760" windowHeight="15820" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
   </bookViews>
   <sheets>
     <sheet name="size_correction" sheetId="2" r:id="rId1"/>
     <sheet name="scale_normalization" sheetId="3" r:id="rId2"/>
+    <sheet name="scrambling" sheetId="4" r:id="rId3"/>
+    <sheet name="concentration_constants" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="Rsolve18">_xlfn.LAMBDA(_xlpm.Rsam18,_xlpm.n,_xlpm.Rsam45,_xlpm.Rsam46,_xlpm.D17O,_xlpm.k,_xlpm.RVSMOW18,_xlpm.RVSMOW17,       IF(_xlpm.n&gt;0,Rsolve18(_xlfn.LET(_xlpm.Rsam17,(1 + _xlpm.D17O / 1000) * _xlpm.RVSMOW17 * (_xlpm.Rsam18/_xlpm.RVSMOW18) ^ _xlpm.k,         _xlpm.Rsam46 - (_xlpm.Rsam45 - _xlpm.Rsam17) * _xlpm.Rsam17 - (_xlpm.Rsam45 - _xlpm.Rsam17) ^ 2/4),_xlpm.n-1,_xlpm.Rsam45,_xlpm.Rsam46,_xlpm.D17O,_xlpm.k,_xlpm.RVSMOW18,_xlpm.RVSMOW17),               _xlpm.Rsam18))</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="183">
   <si>
     <t>corrected to m/z=44 peak area of 20 Vs</t>
   </si>
@@ -418,13 +445,184 @@
   </si>
   <si>
     <t>USER INPUT: REFERENCE APPROPRIATE VALUES IN COLUMNS M &amp; N</t>
+  </si>
+  <si>
+    <t>17RVSMOW</t>
+  </si>
+  <si>
+    <t>=LAMBDA(R18,n,R45,R46,D17O,k,R18VSMOW,R17VSMOW,
+      IF(n&gt;0,Rsolve18(LET(R17,(1 + D17O / 1000) * RVSMOW17 * (Rsam18/RVSMOW18) ^ k,
+        R46 - (R45 - R17) * R17 - (R45 - R17) ^ 2/4),n-1,R45,R46,D17O,k,R18VSMOW,R17VSMOW),
+              R18))</t>
+  </si>
+  <si>
+    <t>18RVSMOW</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>15Ralpha, ref1</t>
+  </si>
+  <si>
+    <t>15Rbeta, ref1</t>
+  </si>
+  <si>
+    <t>17R, ref1</t>
+  </si>
+  <si>
+    <t>31Rm, ref1</t>
+  </si>
+  <si>
+    <t>45Rm, ref1</t>
+  </si>
+  <si>
+    <t>15Ralpha, ref2</t>
+  </si>
+  <si>
+    <t>15Rbeta, ref2</t>
+  </si>
+  <si>
+    <t>17R, ref2</t>
+  </si>
+  <si>
+    <t>31Rm, ref2</t>
+  </si>
+  <si>
+    <t>45Rm, ref2</t>
+  </si>
+  <si>
+    <t>46Rm, ref1</t>
+  </si>
+  <si>
+    <t>D17O_ref1</t>
+  </si>
+  <si>
+    <t>R18_ref1</t>
+  </si>
+  <si>
+    <t>46Rm, ref2</t>
+  </si>
+  <si>
+    <t>D17O_ref2</t>
+  </si>
+  <si>
+    <t>R18_ref2</t>
+  </si>
+  <si>
+    <t>CONSTANTS USED IN CONCENTRATION CALCULATIONS</t>
+  </si>
+  <si>
+    <t>nmol per Vs</t>
+  </si>
+  <si>
+    <t>*x +</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>seawater kg/L</t>
+  </si>
+  <si>
+    <t>DI water kg/L</t>
+  </si>
+  <si>
+    <t>freshwater kg/L</t>
+  </si>
+  <si>
+    <t>seawater L/kg</t>
+  </si>
+  <si>
+    <t>DI water L/kg</t>
+  </si>
+  <si>
+    <t>freshwater L/kg</t>
+  </si>
+  <si>
+    <t>seawater L/g</t>
+  </si>
+  <si>
+    <t>DI water L/g</t>
+  </si>
+  <si>
+    <t>freshwater L/g</t>
+  </si>
+  <si>
+    <t>Linest results</t>
+  </si>
+  <si>
+    <t>SLOPE</t>
+  </si>
+  <si>
+    <t>INTERCEPT</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Vs/nmol</t>
+  </si>
+  <si>
+    <t>Equivalent to:</t>
+  </si>
+  <si>
+    <t>N2O CONCENTRATIONS</t>
+  </si>
+  <si>
+    <t>Pre_weight_g</t>
+  </si>
+  <si>
+    <t>Post_weight_g</t>
+  </si>
+  <si>
+    <t>volume analyzed (g)</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>volume analyzed (L)</t>
+  </si>
+  <si>
+    <t>N2O (nmols)</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>N2O (nmols/L)</t>
+  </si>
+  <si>
+    <t>seawater</t>
+  </si>
+  <si>
+    <t>Copy and paste in values for ref #1: atmosphere-equilibrated seawater</t>
+  </si>
+  <si>
+    <t>Copy and paste in values for ref #2: B6 reference gas</t>
+  </si>
+  <si>
+    <t>Template for algebraic solution for gamma and kappa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Both algebraic and least squares methods are also available in the "Scrambling" function of pyisotopomer.</t>
+  </si>
+  <si>
+    <t>CA06261 (EMPA STD1, "Joni")</t>
+  </si>
+  <si>
+    <t>53504 (EMPA STD2)</t>
+  </si>
+  <si>
+    <t>CA08214 (EMPA STD3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000000"/>
@@ -433,8 +631,11 @@
     <numFmt numFmtId="169" formatCode="0.000000000000"/>
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="174" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,8 +719,58 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,8 +847,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF7B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -818,14 +1081,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -982,20 +1256,90 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="18" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="19" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="11" borderId="19" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="4"/>
+    <xf numFmtId="172" fontId="7" fillId="10" borderId="18" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="4" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{D7E8506B-CBCD-8348-9CFC-3E9D0294CC9E}"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1118,7 +1462,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>scale_normalization!$F$10:$F$24</c:f>
+              <c:f>scale_normalization!$F$13:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1172,7 +1516,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scale_normalization!$H$10:$H$24</c:f>
+              <c:f>scale_normalization!$H$13:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1305,7 +1649,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>scale_normalization!$G$10:$G$24</c:f>
+              <c:f>scale_normalization!$G$13:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1359,7 +1703,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scale_normalization!$I$10:$I$24</c:f>
+              <c:f>scale_normalization!$I$13:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2354,15 +2698,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2690,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357C812C-3217-554B-B2A1-EA8A97EA775D}">
-  <dimension ref="A1:BA54"/>
+  <dimension ref="A1:BH54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2716,7 +3060,7 @@
     <col min="46" max="46" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="17" thickBot="1">
+    <row r="1" spans="1:60" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
@@ -2763,8 +3107,19 @@
       <c r="AX1" s="38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" ht="52" thickBot="1">
+      <c r="AZ1" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA1" s="109"/>
+      <c r="BB1" s="109"/>
+      <c r="BC1" s="109"/>
+      <c r="BD1" s="110"/>
+      <c r="BE1" s="111"/>
+      <c r="BF1" s="111"/>
+      <c r="BG1" s="111"/>
+      <c r="BH1" s="111"/>
+    </row>
+    <row r="2" spans="1:60" ht="52" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>93</v>
       </c>
@@ -2903,10 +3258,35 @@
         <v>34</v>
       </c>
       <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-    </row>
-    <row r="3" spans="1:53" ht="17" thickBot="1">
+      <c r="AZ2" s="112" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA2" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB2" s="112" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC2" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD2" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE2" s="114" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF2" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG2" s="114" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH2" s="116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" ht="17" thickBot="1">
       <c r="A3">
         <v>201204</v>
       </c>
@@ -3022,10 +3402,10 @@
         <v>2.1161148587211971E-3</v>
       </c>
       <c r="AO3" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP3" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ3" s="47">
         <f>A3</f>
@@ -3036,28 +3416,59 @@
         <v>ATM_EQ_SW</v>
       </c>
       <c r="AS3" s="50">
-        <v>14.5162657135253</v>
+        <v>15.105455486877901</v>
       </c>
       <c r="AT3" s="50">
-        <v>-2.8429410815947702</v>
+        <v>-2.7098456777153701</v>
       </c>
       <c r="AU3" s="50">
-        <v>17.359206795120102</v>
+        <v>17.815301164593201</v>
       </c>
       <c r="AV3" s="50">
-        <v>5.8366623159652997</v>
+        <v>6.19780490458127</v>
       </c>
       <c r="AW3" s="50">
-        <v>24.260367368862799</v>
+        <v>24.009727067820499</v>
       </c>
       <c r="AX3" s="50">
-        <v>47.550896204196299</v>
+        <v>47.054171086232202</v>
       </c>
       <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-    </row>
-    <row r="4" spans="1:53" ht="17" thickBot="1">
+      <c r="AZ3">
+        <v>265</v>
+      </c>
+      <c r="BA3">
+        <v>109</v>
+      </c>
+      <c r="BB3">
+        <f>AZ3-BA3</f>
+        <v>156</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD3" s="84">
+        <f>BB3*concentration_constants!$B$6</f>
+        <v>0.15204678362573099</v>
+      </c>
+      <c r="BE3" s="50">
+        <f>I3*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>2.3147589419488055</v>
+      </c>
+      <c r="BF3" s="50">
+        <f>BE3*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.32759693848642901</v>
+      </c>
+      <c r="BG3" s="50">
+        <f>BE3/BD3</f>
+        <v>15.223991502817144</v>
+      </c>
+      <c r="BH3" s="50">
+        <f>BF3/BD3</f>
+        <v>2.1545798646607448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" ht="17" thickBot="1">
       <c r="A4">
         <v>201205</v>
       </c>
@@ -3164,10 +3575,10 @@
         <v>2.09139498425152E-3</v>
       </c>
       <c r="AO4" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP4" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ4" s="47">
         <f t="shared" ref="AQ4:AQ17" si="10">A4</f>
@@ -3178,28 +3589,59 @@
         <v>S2_ref_1</v>
       </c>
       <c r="AS4" s="50">
-        <v>6.1807890246294797</v>
+        <v>6.8736240880515798</v>
       </c>
       <c r="AT4" s="50">
-        <v>-12.767795447653199</v>
+        <v>-13.881471917271901</v>
       </c>
       <c r="AU4" s="50">
-        <v>18.9485844722827</v>
+        <v>20.755096005323502</v>
       </c>
       <c r="AV4" s="50">
-        <v>-3.2935032115118901</v>
+        <v>-3.5039239146101799</v>
       </c>
       <c r="AW4" s="50">
-        <v>17.6814380513656</v>
+        <v>17.848649659933699</v>
       </c>
       <c r="AX4" s="50">
-        <v>34.550401707199804</v>
+        <v>34.879852068524698</v>
       </c>
       <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-    </row>
-    <row r="5" spans="1:53">
+      <c r="AZ4">
+        <v>265</v>
+      </c>
+      <c r="BA4">
+        <v>109</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" ref="BB4:BB5" si="12">AZ4-BA4</f>
+        <v>156</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD4" s="84">
+        <f>BB4*concentration_constants!$F$6</f>
+        <v>0.15628130635143259</v>
+      </c>
+      <c r="BE4" s="50">
+        <f>I4*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>3.0120000289208293</v>
+      </c>
+      <c r="BF4" s="50">
+        <f>BE4*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.33318789796769971</v>
+      </c>
+      <c r="BG4" s="50">
+        <f t="shared" ref="BG4:BG5" si="13">BE4/BD4</f>
+        <v>19.272938646594689</v>
+      </c>
+      <c r="BH4" s="50">
+        <f t="shared" ref="BH4:BH5" si="14">BF4/BD4</f>
+        <v>2.1319753830215245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60">
       <c r="A5">
         <v>201205</v>
       </c>
@@ -3311,10 +3753,10 @@
         <v>2.1097889665454826E-3</v>
       </c>
       <c r="AO5" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP5" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ5" s="47">
         <f t="shared" si="10"/>
@@ -3325,28 +3767,59 @@
         <v>B6_ref_1</v>
       </c>
       <c r="AS5" s="50">
-        <v>-0.89555036190658299</v>
+        <v>-0.53970856962448599</v>
       </c>
       <c r="AT5" s="50">
-        <v>1.57683970539701</v>
+        <v>1.2825215740412901</v>
       </c>
       <c r="AU5" s="50">
-        <v>-2.4723900673035901</v>
+        <v>-1.82223014366578</v>
       </c>
       <c r="AV5" s="50">
-        <v>0.34064467174521601</v>
+        <v>0.37140650220840399</v>
       </c>
       <c r="AW5" s="50">
-        <v>22.6037072815556</v>
+        <v>22.461390435589401</v>
       </c>
       <c r="AX5" s="50">
-        <v>44.2698004992805</v>
+        <v>43.988167450184299</v>
       </c>
       <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-    </row>
-    <row r="6" spans="1:53">
+      <c r="AZ5">
+        <v>265</v>
+      </c>
+      <c r="BA5">
+        <v>109</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="12"/>
+        <v>156</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD5" s="84">
+        <f>BB5*concentration_constants!$F$6</f>
+        <v>0.15628130635143259</v>
+      </c>
+      <c r="BE5" s="50">
+        <f>I5*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>9.9048847269174694</v>
+      </c>
+      <c r="BF5" s="50">
+        <f>BE5*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.38845979713665457</v>
+      </c>
+      <c r="BG5" s="50">
+        <f t="shared" si="13"/>
+        <v>63.378563682109089</v>
+      </c>
+      <c r="BH5" s="50">
+        <f t="shared" si="14"/>
+        <v>2.4856446762936448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60">
       <c r="A6">
         <v>201205</v>
       </c>
@@ -3462,10 +3935,10 @@
         <v>2.1164798861162187E-3</v>
       </c>
       <c r="AO6" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP6" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ6" s="47">
         <f t="shared" si="10"/>
@@ -3476,28 +3949,59 @@
         <v>ATM_EQ_SW_1</v>
       </c>
       <c r="AS6" s="50">
-        <v>14.301762078425501</v>
+        <v>14.851574153242799</v>
       </c>
       <c r="AT6" s="50">
-        <v>-1.1201230455292199</v>
+        <v>-0.85838254078074405</v>
       </c>
       <c r="AU6" s="50">
-        <v>15.4218851239548</v>
+        <v>15.7099566940236</v>
       </c>
       <c r="AV6" s="50">
-        <v>6.59081951644818</v>
+        <v>6.9965958062310696</v>
       </c>
       <c r="AW6" s="50">
-        <v>24.352522723366899</v>
+        <v>24.095420378555701</v>
       </c>
       <c r="AX6" s="50">
-        <v>47.733560624096498</v>
+        <v>47.223987370547697</v>
       </c>
       <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
-    </row>
-    <row r="7" spans="1:53" ht="17" thickBot="1">
+      <c r="AZ6">
+        <v>265</v>
+      </c>
+      <c r="BA6">
+        <v>109</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" ref="BB6:BB17" si="15">AZ6-BA6</f>
+        <v>156</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD6" s="84">
+        <f>BB6*concentration_constants!$B$6</f>
+        <v>0.15204678362573099</v>
+      </c>
+      <c r="BE6" s="50">
+        <f>I6*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>2.4178655483113793</v>
+      </c>
+      <c r="BF6" s="50">
+        <f>BE6*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.32842371830361955</v>
+      </c>
+      <c r="BG6" s="50">
+        <f t="shared" ref="BG6:BG17" si="16">BE6/BD6</f>
+        <v>15.90211572158638</v>
+      </c>
+      <c r="BH6" s="50">
+        <f t="shared" ref="BH6:BH17" si="17">BF6/BD6</f>
+        <v>2.1600175319199595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" ht="17" thickBot="1">
       <c r="A7">
         <v>201205</v>
       </c>
@@ -3613,10 +4117,10 @@
         <v>2.0917613635465034E-3</v>
       </c>
       <c r="AO7" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP7" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ7" s="47">
         <f t="shared" si="10"/>
@@ -3627,28 +4131,59 @@
         <v>S2_ref_2</v>
       </c>
       <c r="AS7" s="50">
-        <v>5.9666177637003299</v>
+        <v>6.6566362138331598</v>
       </c>
       <c r="AT7" s="50">
-        <v>-12.685396531691699</v>
+        <v>-13.8026489120794</v>
       </c>
       <c r="AU7" s="50">
-        <v>18.652014295392</v>
+        <v>20.459285125912601</v>
       </c>
       <c r="AV7" s="50">
-        <v>-3.3593893839957101</v>
+        <v>-3.5730063491231601</v>
       </c>
       <c r="AW7" s="50">
-        <v>17.780711602773899</v>
+        <v>17.941820061995799</v>
       </c>
       <c r="AX7" s="50">
-        <v>34.745990301606</v>
+        <v>35.063444020270097</v>
       </c>
       <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-    </row>
-    <row r="8" spans="1:53" ht="17" thickBot="1">
+      <c r="AZ7">
+        <v>265</v>
+      </c>
+      <c r="BA7">
+        <v>109</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD7" s="84">
+        <f>BB7*concentration_constants!$F$6</f>
+        <v>0.15628130635143259</v>
+      </c>
+      <c r="BE7" s="50">
+        <f>I7*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>17.089981869851989</v>
+      </c>
+      <c r="BF7" s="50">
+        <f>BE7*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.44607485704311811</v>
+      </c>
+      <c r="BG7" s="50">
+        <f t="shared" si="16"/>
+        <v>109.35397373388625</v>
+      </c>
+      <c r="BH7" s="50">
+        <f t="shared" si="17"/>
+        <v>2.8543071942335927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" ht="17" thickBot="1">
       <c r="A8">
         <v>201205</v>
       </c>
@@ -3755,10 +4290,10 @@
         <v>2.1059970799231576E-3</v>
       </c>
       <c r="AO8" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP8" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ8" s="47">
         <f t="shared" si="10"/>
@@ -3769,28 +4304,59 @@
         <v>B6_ref_2</v>
       </c>
       <c r="AS8" s="50">
-        <v>-1.5393539977537301</v>
+        <v>-1.15628904358433</v>
       </c>
       <c r="AT8" s="50">
-        <v>-0.228199904068526</v>
+        <v>-0.70441124849329695</v>
       </c>
       <c r="AU8" s="50">
-        <v>-1.3111540936852</v>
+        <v>-0.45187779509103798</v>
       </c>
       <c r="AV8" s="50">
-        <v>-0.88377695091112995</v>
+        <v>-0.93035014603881605</v>
       </c>
       <c r="AW8" s="50">
-        <v>21.594095106974599</v>
+        <v>21.5157968077277</v>
       </c>
       <c r="AX8" s="50">
-        <v>42.272657835312501</v>
+        <v>42.117851051899301</v>
       </c>
       <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-    </row>
-    <row r="9" spans="1:53">
+      <c r="AZ8">
+        <v>265</v>
+      </c>
+      <c r="BA8">
+        <v>109</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD8" s="84">
+        <f>BB8*concentration_constants!$F$6</f>
+        <v>0.15628130635143259</v>
+      </c>
+      <c r="BE8" s="50">
+        <f>I8*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>9.8350681459275666</v>
+      </c>
+      <c r="BF8" s="50">
+        <f>BE8*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.387899959681965</v>
+      </c>
+      <c r="BG8" s="50">
+        <f t="shared" si="16"/>
+        <v>62.931827072210872</v>
+      </c>
+      <c r="BH8" s="50">
+        <f t="shared" si="17"/>
+        <v>2.4820624343239581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60">
       <c r="A9">
         <v>201205</v>
       </c>
@@ -3900,10 +4466,10 @@
         <v>2.1125489546459449E-3</v>
       </c>
       <c r="AO9" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP9" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ9" s="47">
         <f t="shared" si="10"/>
@@ -3914,25 +4480,58 @@
         <v>ATM_EQ_SW_2</v>
       </c>
       <c r="AS9" s="50">
-        <v>15.402658196560701</v>
+        <v>16.036656468840999</v>
       </c>
       <c r="AT9" s="50">
-        <v>-4.8751984513626301</v>
+        <v>-4.8656873390863202</v>
       </c>
       <c r="AU9" s="50">
-        <v>20.277856647923301</v>
+        <v>20.902343807927299</v>
       </c>
       <c r="AV9" s="50">
-        <v>5.2637298725990398</v>
+        <v>5.5854845648773397</v>
       </c>
       <c r="AW9" s="50">
-        <v>23.307965174557999</v>
+        <v>23.117269398744899</v>
       </c>
       <c r="AX9" s="50">
-        <v>45.664008676895797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
+        <v>45.286402388126902</v>
+      </c>
+      <c r="AZ9">
+        <v>265</v>
+      </c>
+      <c r="BA9">
+        <v>109</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD9" s="84">
+        <f>BB9*concentration_constants!$B$6</f>
+        <v>0.15204678362573099</v>
+      </c>
+      <c r="BE9" s="50">
+        <f>I9*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>2.4132419336762863</v>
+      </c>
+      <c r="BF9" s="50">
+        <f>BE9*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.32838664297549441</v>
+      </c>
+      <c r="BG9" s="50">
+        <f t="shared" si="16"/>
+        <v>15.871706563794037</v>
+      </c>
+      <c r="BH9" s="50">
+        <f t="shared" si="17"/>
+        <v>2.1597736903388287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60">
       <c r="A10">
         <v>201205</v>
       </c>
@@ -4041,10 +4640,10 @@
         <v>2.1110245425008428E-3</v>
       </c>
       <c r="AO10" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP10" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ10" s="47">
         <f t="shared" si="10"/>
@@ -4055,25 +4654,58 @@
         <v>DI</v>
       </c>
       <c r="AS10" s="50">
-        <v>13.2349244797742</v>
+        <v>14.4579715364672</v>
       </c>
       <c r="AT10" s="50">
-        <v>-32.505934182943498</v>
+        <v>-34.815304667159701</v>
       </c>
       <c r="AU10" s="50">
-        <v>45.740858662717798</v>
+        <v>49.273276203626899</v>
       </c>
       <c r="AV10" s="50">
-        <v>-9.6355048515846509</v>
+        <v>-10.1786665653462</v>
       </c>
       <c r="AW10" s="50">
-        <v>23.0120350554621</v>
+        <v>22.853627356464699</v>
       </c>
       <c r="AX10" s="50">
-        <v>45.078050841453397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" ht="17" thickBot="1">
+        <v>44.764460247631298</v>
+      </c>
+      <c r="AZ10">
+        <v>265</v>
+      </c>
+      <c r="BA10">
+        <v>109</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD10" s="84">
+        <f>BB10*concentration_constants!$F$6</f>
+        <v>0.15628130635143259</v>
+      </c>
+      <c r="BE10" s="50">
+        <f>I10*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>7.9745256167661447</v>
+      </c>
+      <c r="BF10" s="50">
+        <f>BE10*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.3729808476444097</v>
+      </c>
+      <c r="BG10" s="50">
+        <f t="shared" si="16"/>
+        <v>51.026740196512598</v>
+      </c>
+      <c r="BH10" s="50">
+        <f t="shared" si="17"/>
+        <v>2.386599244350319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" ht="17" thickBot="1">
       <c r="A11">
         <v>201207</v>
       </c>
@@ -4135,11 +4767,11 @@
         <v>0.42918780000000001</v>
       </c>
       <c r="X11" s="34">
-        <f>scale_normalization!J10</f>
+        <f>scale_normalization!J13</f>
         <v>1.058002378564959</v>
       </c>
       <c r="Y11" s="36">
-        <f>scale_normalization!K10</f>
+        <f>scale_normalization!K13</f>
         <v>0.9378376950888252</v>
       </c>
       <c r="AA11" s="28">
@@ -4187,10 +4819,10 @@
         <v>2.11205838421125E-3</v>
       </c>
       <c r="AO11" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP11" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ11" s="47">
         <f t="shared" si="10"/>
@@ -4201,25 +4833,58 @@
         <v>ATM_EQ_SW_1</v>
       </c>
       <c r="AS11" s="50">
-        <v>16.513078603794501</v>
+        <v>17.1518234709566</v>
       </c>
       <c r="AT11" s="50">
-        <v>-4.6552586604420298</v>
+        <v>-4.5745335204508901</v>
       </c>
       <c r="AU11" s="50">
-        <v>21.168337264236602</v>
+        <v>21.726356991407499</v>
       </c>
       <c r="AV11" s="50">
-        <v>5.9289099716762701</v>
+        <v>6.2886449752528799</v>
       </c>
       <c r="AW11" s="50">
-        <v>23.1712943295652</v>
+        <v>22.988533215933799</v>
       </c>
       <c r="AX11" s="50">
-        <v>45.393373167128303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
+        <v>45.031522726332703</v>
+      </c>
+      <c r="AZ11">
+        <v>265</v>
+      </c>
+      <c r="BA11">
+        <v>109</v>
+      </c>
+      <c r="BB11">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD11" s="84">
+        <f>BB11*concentration_constants!$B$6</f>
+        <v>0.15204678362573099</v>
+      </c>
+      <c r="BE11" s="50">
+        <f>I11*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>2.2611250121817261</v>
+      </c>
+      <c r="BF11" s="50">
+        <f>BE11*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.32716686468017736</v>
+      </c>
+      <c r="BG11" s="50">
+        <f t="shared" si="16"/>
+        <v>14.871245272425968</v>
+      </c>
+      <c r="BH11" s="50">
+        <f t="shared" si="17"/>
+        <v>2.151751302319628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60">
       <c r="A12">
         <v>201207</v>
       </c>
@@ -4325,10 +4990,10 @@
         <v>2.0890378267892978E-3</v>
       </c>
       <c r="AO12" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP12" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ12" s="47">
         <f t="shared" si="10"/>
@@ -4339,25 +5004,58 @@
         <v>S2_ref_1</v>
       </c>
       <c r="AS12" s="50">
-        <v>6.3064257151912404</v>
+        <v>7.0098620813652204</v>
       </c>
       <c r="AT12" s="50">
-        <v>-13.412967242059199</v>
+        <v>-14.5751415214816</v>
       </c>
       <c r="AU12" s="50">
-        <v>19.719392957250399</v>
+        <v>21.5850036028468</v>
       </c>
       <c r="AV12" s="50">
-        <v>-3.5532707634339702</v>
+        <v>-3.78263972005821</v>
       </c>
       <c r="AW12" s="50">
-        <v>17.047680147015601</v>
+        <v>17.254451999306699</v>
       </c>
       <c r="AX12" s="50">
-        <v>33.3021946720324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
+        <v>33.709358475152598</v>
+      </c>
+      <c r="AZ12">
+        <v>265</v>
+      </c>
+      <c r="BA12">
+        <v>109</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD12" s="84">
+        <f>BB12*concentration_constants!$F$6</f>
+        <v>0.15628130635143259</v>
+      </c>
+      <c r="BE12" s="50">
+        <f>I12*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>3.6625426080784145</v>
+      </c>
+      <c r="BF12" s="50">
+        <f>BE12*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.33840439663490651</v>
+      </c>
+      <c r="BG12" s="50">
+        <f t="shared" si="16"/>
+        <v>23.435577124255598</v>
+      </c>
+      <c r="BH12" s="50">
+        <f t="shared" si="17"/>
+        <v>2.1653542866728439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60">
       <c r="A13">
         <v>201207</v>
       </c>
@@ -4463,10 +5161,10 @@
         <v>2.1092446228371492E-3</v>
       </c>
       <c r="AO13" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP13" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ13" s="47">
         <f t="shared" si="10"/>
@@ -4477,25 +5175,58 @@
         <v>B6_ref_1</v>
       </c>
       <c r="AS13" s="50">
-        <v>-0.29958193467383099</v>
+        <v>8.2241945278393999E-2</v>
       </c>
       <c r="AT13" s="50">
-        <v>0.56714623241393902</v>
+        <v>0.22102332359041901</v>
       </c>
       <c r="AU13" s="50">
-        <v>-0.86672816708777101</v>
+        <v>-0.138781378312025</v>
       </c>
       <c r="AV13" s="50">
-        <v>0.13378214887005399</v>
+        <v>0.151632634434406</v>
       </c>
       <c r="AW13" s="50">
-        <v>22.459053292656701</v>
+        <v>22.3259423648012</v>
       </c>
       <c r="AX13" s="50">
-        <v>43.9835427480606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
+        <v>43.720161276728597</v>
+      </c>
+      <c r="AZ13">
+        <v>265</v>
+      </c>
+      <c r="BA13">
+        <v>109</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD13" s="84">
+        <f>BB13*concentration_constants!$F$6</f>
+        <v>0.15628130635143259</v>
+      </c>
+      <c r="BE13" s="50">
+        <f>I13*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>9.6085110288080102</v>
+      </c>
+      <c r="BF13" s="50">
+        <f>BE13*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.38608326860383324</v>
+      </c>
+      <c r="BG13" s="50">
+        <f t="shared" si="16"/>
+        <v>61.482151980488176</v>
+      </c>
+      <c r="BH13" s="50">
+        <f t="shared" si="17"/>
+        <v>2.4704379405150405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60">
       <c r="A14">
         <v>201207</v>
       </c>
@@ -4601,10 +5332,10 @@
         <v>2.1118562233900973E-3</v>
       </c>
       <c r="AO14" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP14" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ14" s="47">
         <f t="shared" si="10"/>
@@ -4615,25 +5346,58 @@
         <v>ATM_EQ_SW_2</v>
       </c>
       <c r="AS14" s="50">
-        <v>13.799823457244701</v>
+        <v>14.393773542834699</v>
       </c>
       <c r="AT14" s="50">
-        <v>-3.7030489906895099</v>
+        <v>-3.6809189289388402</v>
       </c>
       <c r="AU14" s="50">
-        <v>17.502872447934202</v>
+        <v>18.074692471773599</v>
       </c>
       <c r="AV14" s="50">
-        <v>5.0483872332775999</v>
+        <v>5.3564273069479604</v>
       </c>
       <c r="AW14" s="50">
-        <v>23.123579701937299</v>
+        <v>22.94455532836</v>
       </c>
       <c r="AX14" s="50">
-        <v>45.298896680562898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
+        <v>44.944459545090702</v>
+      </c>
+      <c r="AZ14">
+        <v>265</v>
+      </c>
+      <c r="BA14">
+        <v>109</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD14" s="84">
+        <f>BB14*concentration_constants!$B$6</f>
+        <v>0.15204678362573099</v>
+      </c>
+      <c r="BE14" s="50">
+        <f>I14*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>2.3526725819565679</v>
+      </c>
+      <c r="BF14" s="50">
+        <f>BE14*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.32790095617705511</v>
+      </c>
+      <c r="BG14" s="50">
+        <f t="shared" si="16"/>
+        <v>15.473346596714352</v>
+      </c>
+      <c r="BH14" s="50">
+        <f t="shared" si="17"/>
+        <v>2.1565793656260164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60">
       <c r="A15">
         <v>201207</v>
       </c>
@@ -4739,10 +5503,10 @@
         <v>2.1140383039962136E-3</v>
       </c>
       <c r="AO15" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP15" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ15" s="47">
         <f t="shared" si="10"/>
@@ -4753,25 +5517,58 @@
         <v>ATM_EQ_SW_3</v>
       </c>
       <c r="AS15" s="50">
-        <v>16.047411333567101</v>
+        <v>16.679833428360201</v>
       </c>
       <c r="AT15" s="50">
-        <v>-4.4141894402022199</v>
+        <v>-4.3336183513273898</v>
       </c>
       <c r="AU15" s="50">
-        <v>20.461600773769302</v>
+        <v>21.0134517796876</v>
       </c>
       <c r="AV15" s="50">
-        <v>5.8166109466824496</v>
+        <v>6.1731075385164003</v>
       </c>
       <c r="AW15" s="50">
-        <v>23.703518866592301</v>
+        <v>23.487665779901398</v>
       </c>
       <c r="AX15" s="50">
-        <v>46.447474886142501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
+        <v>46.019903286484897</v>
+      </c>
+      <c r="AZ15">
+        <v>265</v>
+      </c>
+      <c r="BA15">
+        <v>109</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD15" s="84">
+        <f>BB15*concentration_constants!$B$6</f>
+        <v>0.15204678362573099</v>
+      </c>
+      <c r="BE15" s="50">
+        <f>I15*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>2.2375445775427525</v>
+      </c>
+      <c r="BF15" s="50">
+        <f>BE15*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.3269777805067392</v>
+      </c>
+      <c r="BG15" s="50">
+        <f t="shared" si="16"/>
+        <v>14.716158567685026</v>
+      </c>
+      <c r="BH15" s="50">
+        <f t="shared" si="17"/>
+        <v>2.1505077102558618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60">
       <c r="A16">
         <v>201207</v>
       </c>
@@ -4877,10 +5674,10 @@
         <v>2.0909357320700551E-3</v>
       </c>
       <c r="AO16" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP16" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ16" s="47">
         <f t="shared" si="10"/>
@@ -4891,25 +5688,58 @@
         <v>S2_ref_2</v>
       </c>
       <c r="AS16" s="50">
-        <v>6.3885460550383497</v>
+        <v>7.1029978910310803</v>
       </c>
       <c r="AT16" s="50">
-        <v>-13.7135740655959</v>
+        <v>-14.893050092214599</v>
       </c>
       <c r="AU16" s="50">
-        <v>20.102120120634201</v>
+        <v>21.996047983245699</v>
       </c>
       <c r="AV16" s="50">
-        <v>-3.6625140052787799</v>
+        <v>-3.8950261005917799</v>
       </c>
       <c r="AW16" s="50">
-        <v>17.560421759443798</v>
+        <v>17.735485742880101</v>
       </c>
       <c r="AX16" s="50">
-        <v>34.311999803463699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50">
+        <v>34.656884164523802</v>
+      </c>
+      <c r="AZ16">
+        <v>265</v>
+      </c>
+      <c r="BA16">
+        <v>109</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD16" s="84">
+        <f>BB16*concentration_constants!$F$6</f>
+        <v>0.15628130635143259</v>
+      </c>
+      <c r="BE16" s="50">
+        <f>I16*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>3.9394971247204844</v>
+      </c>
+      <c r="BF16" s="50">
+        <f>BE16*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.34062520878960229</v>
+      </c>
+      <c r="BG16" s="50">
+        <f t="shared" si="16"/>
+        <v>25.207730960871714</v>
+      </c>
+      <c r="BH16" s="50">
+        <f t="shared" si="17"/>
+        <v>2.179564637267827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60">
       <c r="A17">
         <v>201207</v>
       </c>
@@ -5012,10 +5842,10 @@
         <v>2.1099653819650526E-3</v>
       </c>
       <c r="AO17" s="57">
-        <v>0.17219999999999999</v>
+        <v>0.18325645634287266</v>
       </c>
       <c r="AP17" s="58">
-        <v>7.9710000000000003E-2</v>
+        <v>9.0490249769565087E-2</v>
       </c>
       <c r="AQ17" s="47">
         <f t="shared" si="10"/>
@@ -5026,25 +5856,58 @@
         <v>DI</v>
       </c>
       <c r="AS17" s="50">
-        <v>12.641866191825001</v>
+        <v>13.725240315331099</v>
       </c>
       <c r="AT17" s="50">
-        <v>-26.4749490551166</v>
+        <v>-28.3353648321477</v>
       </c>
       <c r="AU17" s="50">
-        <v>39.116815246941599</v>
+        <v>42.060605147478803</v>
       </c>
       <c r="AV17" s="50">
-        <v>-6.9165414316457703</v>
+        <v>-7.3050622584082596</v>
       </c>
       <c r="AW17" s="50">
-        <v>22.7069965584001</v>
+        <v>22.565126816266901</v>
       </c>
       <c r="AX17" s="50">
-        <v>44.474224302331002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50">
+        <v>44.193449376003002</v>
+      </c>
+      <c r="AZ17">
+        <v>265</v>
+      </c>
+      <c r="BA17">
+        <v>109</v>
+      </c>
+      <c r="BB17">
+        <f t="shared" si="15"/>
+        <v>156</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD17" s="84">
+        <f>BB17*concentration_constants!$F$6</f>
+        <v>0.15628130635143259</v>
+      </c>
+      <c r="BE17" s="50">
+        <f>I17*concentration_constants!$B$2+concentration_constants!$D$2</f>
+        <v>6.3978730261994317</v>
+      </c>
+      <c r="BF17" s="50">
+        <f>BE17*concentration_constants!$B$3+concentration_constants!$D$3</f>
+        <v>0.36033816075373781</v>
+      </c>
+      <c r="BG17" s="50">
+        <f t="shared" si="16"/>
+        <v>40.938184966360723</v>
+      </c>
+      <c r="BH17" s="50">
+        <f t="shared" si="17"/>
+        <v>2.3057022568229555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60">
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -5085,7 +5948,7 @@
       <c r="AW18" s="48"/>
       <c r="AX18" s="48"/>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:60">
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -5126,7 +5989,7 @@
       <c r="AW19" s="48"/>
       <c r="AX19" s="48"/>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:60">
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -5167,7 +6030,7 @@
       <c r="AW20" s="48"/>
       <c r="AX20" s="48"/>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:60">
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -5208,7 +6071,7 @@
       <c r="AW21" s="48"/>
       <c r="AX21" s="48"/>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:60">
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -5249,7 +6112,7 @@
       <c r="AW22" s="48"/>
       <c r="AX22" s="48"/>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:60">
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -5290,7 +6153,7 @@
       <c r="AW23" s="48"/>
       <c r="AX23" s="48"/>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:60">
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -5331,7 +6194,7 @@
       <c r="AW24" s="48"/>
       <c r="AX24" s="48"/>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:60">
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
       <c r="E25" s="42"/>
@@ -5372,7 +6235,7 @@
       <c r="AW25" s="48"/>
       <c r="AX25" s="48"/>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:60">
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -5413,7 +6276,7 @@
       <c r="AW26" s="48"/>
       <c r="AX26" s="48"/>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:60">
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -5454,7 +6317,7 @@
       <c r="AW27" s="48"/>
       <c r="AX27" s="48"/>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:60">
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -5495,7 +6358,7 @@
       <c r="AW28" s="48"/>
       <c r="AX28" s="48"/>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:60">
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -5536,7 +6399,7 @@
       <c r="AW29" s="48"/>
       <c r="AX29" s="48"/>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:60">
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -5577,7 +6440,7 @@
       <c r="AW30" s="45"/>
       <c r="AX30" s="45"/>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:60">
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -5616,7 +6479,7 @@
       <c r="AW31" s="45"/>
       <c r="AX31" s="45"/>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:60">
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -5968,55 +6831,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131672C0-DA0C-0746-8A59-3EFE5C746DAE}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
-    <col min="15" max="15" width="26.1640625" customWidth="1"/>
-    <col min="16" max="16" width="24.1640625" customWidth="1"/>
-    <col min="17" max="18" width="18.6640625" customWidth="1"/>
+    <col min="1" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" customWidth="1"/>
+    <col min="15" max="15" width="22.1640625" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" customWidth="1"/>
+    <col min="17" max="17" width="26.1640625" customWidth="1"/>
+    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="19" max="20" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="78"/>
-    </row>
-    <row r="2" spans="1:15" ht="17">
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="78"/>
+    </row>
+    <row r="2" spans="1:17" ht="17">
       <c r="A2" s="51" t="s">
         <v>116</v>
       </c>
@@ -6060,7 +6925,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="73" t="s">
         <v>36</v>
       </c>
@@ -6106,13 +6971,15 @@
         <v>2.1105882179178336E-3</v>
       </c>
       <c r="M3" s="72">
+        <f>K3/size_correction!X$3</f>
         <v>1.0059496767117579</v>
       </c>
       <c r="N3" s="72">
+        <f>L3/size_correction!Y$3</f>
         <v>1.0044225086731247</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="73" t="s">
         <v>38</v>
       </c>
@@ -6130,7 +6997,7 @@
         <v>32.729999999999997</v>
       </c>
       <c r="F4" s="74">
-        <f t="shared" ref="F4:F5" si="0">B4-C4</f>
+        <f t="shared" ref="F4:F8" si="0">B4-C4</f>
         <v>18.419999999999998</v>
       </c>
       <c r="G4" s="70">
@@ -6158,13 +7025,15 @@
         <v>2.0870767595740011E-3</v>
       </c>
       <c r="M4" s="72">
+        <f>K4/size_correction!X$3</f>
         <v>0.99629623559207692</v>
       </c>
       <c r="N4" s="72">
+        <f>L4/size_correction!Y$3</f>
         <v>0.99323347721175648</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="73" t="s">
         <v>37</v>
       </c>
@@ -6186,7 +7055,7 @@
         <v>-0.25581632613833338</v>
       </c>
       <c r="G5" s="70">
-        <f t="shared" ref="G5:H5" si="1">(B5/1000+1)*0.0036765</f>
+        <f t="shared" ref="G5:H8" si="1">(B5/1000+1)*0.0036765</f>
         <v>3.6750148213719339E-3</v>
       </c>
       <c r="H5" s="70">
@@ -6194,750 +7063,1795 @@
         <v>3.6759553300949816E-3</v>
       </c>
       <c r="I5" s="70">
-        <f t="shared" ref="I5" si="2">(E5/1000+1)*0.0020052</f>
+        <f t="shared" ref="I5:I8" si="2">(E5/1000+1)*0.0020052</f>
         <v>2.0893166507602399E-3</v>
       </c>
       <c r="J5" s="70">
-        <f t="shared" ref="J5" si="3">(I5/0.0020052)^0.516*0.0003799</f>
+        <f t="shared" ref="J5:J8" si="3">(I5/0.0020052)^0.516*0.0003799</f>
         <v>3.8804145413997107E-4</v>
       </c>
       <c r="K5" s="71">
-        <f t="shared" ref="K5" si="4">G5+H5+J5</f>
+        <f t="shared" ref="K5:K8" si="4">G5+H5+J5</f>
         <v>7.7390116056068863E-3</v>
       </c>
       <c r="L5" s="71">
-        <f t="shared" ref="L5" si="5">(G5+H5)*J5+I5+G5*H5</f>
+        <f t="shared" ref="L5:L8" si="5">(G5+H5)*J5+I5+G5*H5</f>
         <v>2.1056783222279545E-3</v>
       </c>
       <c r="M5" s="72">
+        <f>K5/size_correction!X$3</f>
         <v>0.99973991247556415</v>
       </c>
       <c r="N5" s="72">
+        <f>L5/size_correction!Y$3</f>
         <v>1.0020859042591113</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="74">
+        <v>-22.21</v>
+      </c>
+      <c r="C6" s="74">
+        <v>-49.28</v>
+      </c>
+      <c r="D6" s="74">
+        <f t="shared" ref="D6:D8" si="6">AVERAGE(B6:C6)</f>
+        <v>-35.745000000000005</v>
+      </c>
+      <c r="E6" s="74">
+        <v>26.94</v>
+      </c>
+      <c r="F6" s="74">
+        <f t="shared" si="0"/>
+        <v>27.07</v>
+      </c>
+      <c r="G6" s="70">
+        <f t="shared" si="1"/>
+        <v>3.5948449350000004E-3</v>
+      </c>
+      <c r="H6" s="70">
+        <f t="shared" si="1"/>
+        <v>3.49532208E-3</v>
+      </c>
+      <c r="I6" s="70">
+        <f t="shared" si="2"/>
+        <v>2.0592200879999997E-3</v>
+      </c>
+      <c r="J6" s="70">
+        <f t="shared" si="3"/>
+        <v>3.8514702697154833E-4</v>
+      </c>
+      <c r="K6" s="71">
+        <f t="shared" si="4"/>
+        <v>7.4753140419715489E-3</v>
+      </c>
+      <c r="L6" s="71">
+        <f t="shared" si="5"/>
+        <v>2.0745159856220404E-3</v>
+      </c>
+      <c r="M6" s="72">
+        <f>K6/size_correction!X$3</f>
+        <v>0.96567497077192166</v>
+      </c>
+      <c r="N6" s="72">
+        <f>L6/size_correction!Y$3</f>
+        <v>0.98725584312065418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="74">
+        <v>1.71</v>
+      </c>
+      <c r="C7" s="74">
+        <v>94.44</v>
+      </c>
+      <c r="D7" s="74">
+        <f t="shared" si="6"/>
+        <v>48.074999999999996</v>
+      </c>
+      <c r="E7" s="74">
+        <v>36.01</v>
+      </c>
+      <c r="F7" s="74">
+        <f t="shared" si="0"/>
+        <v>-92.73</v>
+      </c>
+      <c r="G7" s="70">
+        <f>(B7/1000+1)*0.0036765</f>
+        <v>3.6827868150000006E-3</v>
+      </c>
+      <c r="H7" s="70">
+        <f t="shared" si="1"/>
+        <v>4.0237086600000008E-3</v>
+      </c>
+      <c r="I7" s="70">
+        <f t="shared" si="2"/>
+        <v>2.0774072520000002E-3</v>
+      </c>
+      <c r="J7" s="70">
+        <f t="shared" si="3"/>
+        <v>3.8689853960154226E-4</v>
+      </c>
+      <c r="K7" s="71">
+        <f t="shared" si="4"/>
+        <v>8.0933940146015442E-3</v>
+      </c>
+      <c r="L7" s="71">
+        <f t="shared" si="5"/>
+        <v>2.0952073450451725E-3</v>
+      </c>
+      <c r="M7" s="72">
+        <f>K7/size_correction!X$3</f>
+        <v>1.0455196911613225</v>
+      </c>
+      <c r="N7" s="72">
+        <f>L7/size_correction!Y$3</f>
+        <v>0.99710279808951241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="74">
+        <v>17.11</v>
+      </c>
+      <c r="C8" s="74">
+        <v>-3.43</v>
+      </c>
+      <c r="D8" s="74">
+        <f t="shared" si="6"/>
+        <v>6.84</v>
+      </c>
+      <c r="E8" s="74">
+        <v>35.29</v>
+      </c>
+      <c r="F8" s="74">
+        <f t="shared" si="0"/>
+        <v>20.54</v>
+      </c>
+      <c r="G8" s="70">
+        <f t="shared" si="1"/>
+        <v>3.7394049149999998E-3</v>
+      </c>
+      <c r="H8" s="70">
+        <f t="shared" si="1"/>
+        <v>3.6638896049999998E-3</v>
+      </c>
+      <c r="I8" s="70">
+        <f t="shared" si="2"/>
+        <v>2.0759635080000003E-3</v>
+      </c>
+      <c r="J8" s="70">
+        <f t="shared" si="3"/>
+        <v>3.8675977189798279E-4</v>
+      </c>
+      <c r="K8" s="71">
+        <f t="shared" si="4"/>
+        <v>7.7900542918979817E-3</v>
+      </c>
+      <c r="L8" s="71">
+        <f t="shared" si="5"/>
+        <v>2.0925275712968031E-3</v>
+      </c>
+      <c r="M8" s="72">
+        <f>K8/size_correction!X$3</f>
+        <v>1.0063337016214813</v>
+      </c>
+      <c r="N8" s="72">
+        <f>L8/size_correction!Y$3</f>
+        <v>0.99582750191939118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="66"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="75" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="65"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="120"/>
+      <c r="B11" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="65"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-    </row>
-    <row r="9" spans="1:15" s="41" customFormat="1">
-      <c r="A9" s="66" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="65"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+    </row>
+    <row r="12" spans="1:17" s="41" customFormat="1">
+      <c r="A12" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B12" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="E12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="66" t="s">
+      <c r="F12" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G12" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H12" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I12" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K12" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="O9" s="66"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="66" t="str">
+      <c r="M12" s="66"/>
+      <c r="O12" s="66"/>
+    </row>
+    <row r="13" spans="1:17" ht="17" thickBot="1">
+      <c r="A13" s="66" t="str">
         <f>size_correction!D3</f>
         <v>ATM_EQ_SW</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B13" s="73">
+        <f t="shared" ref="B13:C15" si="7">M3</f>
+        <v>1.0059496767117579</v>
+      </c>
+      <c r="C13" s="73">
+        <f t="shared" si="7"/>
+        <v>1.0044225086731247</v>
+      </c>
+      <c r="D13" s="117">
         <f>size_correction!AF3</f>
         <v>1.0056851052976181</v>
       </c>
-      <c r="C10" s="67">
+      <c r="E13" s="117">
         <f>size_correction!AG3</f>
         <v>1.0075218399408568</v>
       </c>
-      <c r="D10" s="73">
-        <f t="shared" ref="D10:E12" si="6">M3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="E10" s="73">
-        <f t="shared" si="6"/>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="F10" s="72">
-        <f>LN(B10)</f>
+      <c r="F13" s="72">
+        <f t="shared" ref="F13:F27" si="8">LN(D13)</f>
         <v>5.6690060748599133E-3</v>
       </c>
-      <c r="G10" s="72">
-        <f>LN(C10)</f>
+      <c r="G13" s="72">
+        <f t="shared" ref="G13:G27" si="9">LN(E13)</f>
         <v>7.4936919644022753E-3</v>
       </c>
-      <c r="H10" s="72">
-        <f t="shared" ref="F10:I24" si="7">LN(D10)</f>
+      <c r="H13" s="72">
+        <f t="shared" ref="H13:I19" si="10">LN(B13)</f>
         <v>5.9320472770020231E-3</v>
       </c>
-      <c r="I10" s="72">
-        <f t="shared" si="7"/>
+      <c r="I13" s="72">
+        <f t="shared" si="10"/>
         <v>4.412758119012896E-3</v>
       </c>
-      <c r="J10" s="77">
-        <f>SLOPE(H10:H24,F10:F24)</f>
+      <c r="J13" s="77">
+        <f>SLOPE(H13:H27,F13:F27)</f>
         <v>1.058002378564959</v>
       </c>
-      <c r="K10" s="77">
-        <f>SLOPE(I10:I24,G10:G24)</f>
+      <c r="K13" s="77">
+        <f>SLOPE(I13:I27,G13:G27)</f>
         <v>0.9378376950888252</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="66" t="str">
+    <row r="14" spans="1:17" ht="18" thickTop="1" thickBot="1">
+      <c r="A14" s="66" t="str">
         <f>size_correction!D4</f>
         <v>S2_ref_1</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B14" s="73">
+        <f t="shared" si="7"/>
+        <v>0.99629623559207692</v>
+      </c>
+      <c r="C14" s="73">
+        <f t="shared" si="7"/>
+        <v>0.99323347721175648</v>
+      </c>
+      <c r="D14" s="117">
         <f>size_correction!AF4</f>
         <v>0.99668972770557829</v>
       </c>
-      <c r="C11" s="67">
+      <c r="E14" s="117">
         <f>size_correction!AG4</f>
         <v>0.99497700286985102</v>
       </c>
-      <c r="D11" s="73">
-        <f t="shared" si="6"/>
-        <v>0.99629623559207692</v>
-      </c>
-      <c r="E11" s="73">
-        <f t="shared" si="6"/>
-        <v>0.99323347721175648</v>
-      </c>
-      <c r="F11" s="72">
-        <f t="shared" si="7"/>
+      <c r="F14" s="72">
+        <f t="shared" si="8"/>
         <v>-3.3157633670658081E-3</v>
       </c>
-      <c r="G11" s="72">
-        <f t="shared" si="7"/>
+      <c r="G14" s="72">
+        <f t="shared" si="9"/>
         <v>-5.0356547842637621E-3</v>
       </c>
-      <c r="H11" s="72">
-        <f t="shared" si="7"/>
+      <c r="H14" s="72">
+        <f t="shared" si="10"/>
         <v>-3.7106403264231301E-3</v>
       </c>
-      <c r="I11" s="72">
-        <f t="shared" si="7"/>
+      <c r="I14" s="72">
+        <f t="shared" si="10"/>
         <v>-6.7895195007928941E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="66" t="str">
+    <row r="15" spans="1:17" ht="18" thickTop="1" thickBot="1">
+      <c r="A15" s="66" t="str">
         <f>size_correction!D5</f>
         <v>B6_ref_1</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B15" s="73">
+        <f t="shared" si="7"/>
+        <v>0.99973991247556415</v>
+      </c>
+      <c r="C15" s="73">
+        <f t="shared" si="7"/>
+        <v>1.0020859042591113</v>
+      </c>
+      <c r="D15" s="117">
         <f>size_correction!AF5</f>
         <v>1.0003832772874761</v>
       </c>
-      <c r="C12" s="67">
+      <c r="E15" s="117">
         <f>size_correction!AG5</f>
         <v>1.0043106480077921</v>
       </c>
-      <c r="D12" s="73">
-        <f t="shared" si="6"/>
-        <v>0.99973991247556415</v>
-      </c>
-      <c r="E12" s="73">
-        <f t="shared" si="6"/>
-        <v>1.0020859042591113</v>
-      </c>
-      <c r="F12" s="72">
-        <f t="shared" si="7"/>
+      <c r="F15" s="72">
+        <f t="shared" si="8"/>
         <v>3.8320385549917295E-4</v>
       </c>
-      <c r="G12" s="72">
-        <f t="shared" si="7"/>
+      <c r="G15" s="72">
+        <f t="shared" si="9"/>
         <v>4.3013837783483656E-3</v>
       </c>
-      <c r="H12" s="72">
-        <f t="shared" si="7"/>
+      <c r="H15" s="72">
+        <f t="shared" si="10"/>
         <v>-2.6012135306176113E-4</v>
       </c>
-      <c r="I12" s="72">
-        <f t="shared" si="7"/>
+      <c r="I15" s="72">
+        <f t="shared" si="10"/>
         <v>2.0837317813513596E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="66" t="str">
+    <row r="16" spans="1:17" ht="18" thickTop="1" thickBot="1">
+      <c r="A16" s="66" t="str">
         <f>size_correction!D6</f>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B16" s="73">
+        <f t="shared" ref="B16:C18" si="11">M3</f>
+        <v>1.0059496767117579</v>
+      </c>
+      <c r="C16" s="73">
+        <f t="shared" si="11"/>
+        <v>1.0044225086731247</v>
+      </c>
+      <c r="D16" s="117">
         <f>size_correction!AF6</f>
         <v>1.0064059824102283</v>
       </c>
-      <c r="C13" s="67">
+      <c r="E16" s="117">
         <f>size_correction!AG6</f>
         <v>1.0077071570383731</v>
       </c>
-      <c r="D13" s="73">
-        <f t="shared" ref="D13:E15" si="8">M3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="E13" s="73">
+      <c r="F16" s="72">
         <f t="shared" si="8"/>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="F13" s="72">
-        <f t="shared" si="7"/>
         <v>6.3855513126554056E-3</v>
       </c>
-      <c r="G13" s="72">
-        <f t="shared" si="7"/>
+      <c r="G16" s="72">
+        <f t="shared" si="9"/>
         <v>7.6776086292741075E-3</v>
       </c>
-      <c r="H13" s="72">
-        <f t="shared" si="7"/>
+      <c r="H16" s="72">
+        <f t="shared" si="10"/>
         <v>5.9320472770020231E-3</v>
       </c>
-      <c r="I13" s="72">
-        <f t="shared" si="7"/>
+      <c r="I16" s="72">
+        <f t="shared" si="10"/>
         <v>4.412758119012896E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="66" t="str">
+    <row r="17" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A17" s="66" t="str">
         <f>size_correction!D7</f>
         <v>S2_ref_2</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B17" s="73">
+        <f t="shared" si="11"/>
+        <v>0.99629623559207692</v>
+      </c>
+      <c r="C17" s="73">
+        <f t="shared" si="11"/>
+        <v>0.99323347721175648</v>
+      </c>
+      <c r="D17" s="117">
         <f>size_correction!AF7</f>
         <v>0.99663201609671503</v>
       </c>
-      <c r="C14" s="67">
+      <c r="E17" s="117">
         <f>size_correction!AG7</f>
         <v>0.9951628615034982</v>
       </c>
-      <c r="D14" s="73">
+      <c r="F17" s="72">
         <f t="shared" si="8"/>
-        <v>0.99629623559207692</v>
-      </c>
-      <c r="E14" s="73">
-        <f t="shared" si="8"/>
-        <v>0.99323347721175648</v>
-      </c>
-      <c r="F14" s="72">
-        <f t="shared" si="7"/>
         <v>-3.3736683280273967E-3</v>
       </c>
-      <c r="G14" s="72">
-        <f t="shared" si="7"/>
+      <c r="G17" s="72">
+        <f t="shared" si="9"/>
         <v>-4.8488753146248009E-3</v>
       </c>
-      <c r="H14" s="72">
-        <f t="shared" si="7"/>
+      <c r="H17" s="72">
+        <f t="shared" si="10"/>
         <v>-3.7106403264231301E-3</v>
       </c>
-      <c r="I14" s="72">
-        <f t="shared" si="7"/>
+      <c r="I17" s="72">
+        <f t="shared" si="10"/>
         <v>-6.7895195007928941E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="66" t="str">
+    <row r="18" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A18" s="66" t="str">
         <f>size_correction!D8</f>
         <v>B6_ref_2</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B18" s="73">
+        <f t="shared" si="11"/>
+        <v>0.99973991247556415</v>
+      </c>
+      <c r="C18" s="73">
+        <f t="shared" si="11"/>
+        <v>1.0020859042591113</v>
+      </c>
+      <c r="D18" s="117">
         <f>size_correction!AF8</f>
         <v>0.99917068284195976</v>
       </c>
-      <c r="C15" s="67">
+      <c r="E18" s="117">
         <f>size_correction!AG8</f>
         <v>1.0023860907979212</v>
       </c>
-      <c r="D15" s="73">
+      <c r="F18" s="72">
         <f t="shared" si="8"/>
-        <v>0.99973991247556415</v>
-      </c>
-      <c r="E15" s="73">
-        <f t="shared" si="8"/>
-        <v>1.0020859042591113</v>
-      </c>
-      <c r="F15" s="72">
-        <f t="shared" si="7"/>
         <v>-8.2966123175853173E-4</v>
       </c>
-      <c r="G15" s="72">
-        <f t="shared" si="7"/>
+      <c r="G18" s="72">
+        <f t="shared" si="9"/>
         <v>2.3832486035312902E-3</v>
       </c>
-      <c r="H15" s="72">
-        <f t="shared" si="7"/>
+      <c r="H18" s="72">
+        <f t="shared" si="10"/>
         <v>-2.6012135306176113E-4</v>
       </c>
-      <c r="I15" s="72">
-        <f t="shared" si="7"/>
+      <c r="I18" s="72">
+        <f t="shared" si="10"/>
         <v>2.0837317813513596E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="66" t="str">
+    <row r="19" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A19" s="66" t="str">
         <f>size_correction!D9</f>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B19" s="73">
+        <f>M3</f>
+        <v>1.0059496767117579</v>
+      </c>
+      <c r="C19" s="73">
+        <f>N3</f>
+        <v>1.0044225086731247</v>
+      </c>
+      <c r="D19" s="117">
         <f>size_correction!AF9</f>
         <v>1.0050941512728657</v>
       </c>
-      <c r="C16" s="67">
+      <c r="E19" s="117">
         <f>size_correction!AG9</f>
         <v>1.0057116133646442</v>
       </c>
-      <c r="D16" s="73">
+      <c r="F19" s="72">
+        <f t="shared" si="8"/>
+        <v>5.0812199816469847E-3</v>
+      </c>
+      <c r="G19" s="72">
+        <f t="shared" si="9"/>
+        <v>5.6953639452707308E-3</v>
+      </c>
+      <c r="H19" s="72">
+        <f t="shared" si="10"/>
+        <v>5.9320472770020231E-3</v>
+      </c>
+      <c r="I19" s="72">
+        <f t="shared" si="10"/>
+        <v>4.412758119012896E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A20" s="66" t="str">
+        <f>size_correction!D10</f>
+        <v>DI</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="117">
+        <f>size_correction!AF10</f>
+        <v>0.99092722925764687</v>
+      </c>
+      <c r="E20" s="117">
+        <f>size_correction!AG10</f>
+        <v>1.0049378092932522</v>
+      </c>
+      <c r="F20" s="72">
+        <f t="shared" si="8"/>
+        <v>-9.1141789753790732E-3</v>
+      </c>
+      <c r="G20" s="72">
+        <f t="shared" si="9"/>
+        <v>4.9256582960658154E-3</v>
+      </c>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A21" s="66" t="str">
+        <f>size_correction!D11</f>
+        <v>ATM_EQ_SW_1</v>
+      </c>
+      <c r="B21" s="73">
+        <f t="shared" ref="B21:C23" si="12">M3</f>
+        <v>1.0059496767117579</v>
+      </c>
+      <c r="C21" s="73">
+        <f t="shared" si="12"/>
+        <v>1.0044225086731247</v>
+      </c>
+      <c r="D21" s="117">
+        <f>size_correction!AF11</f>
+        <v>1.0057192814133826</v>
+      </c>
+      <c r="E21" s="117">
+        <f>size_correction!AG11</f>
+        <v>1.0054625917600983</v>
+      </c>
+      <c r="F21" s="72">
+        <f t="shared" si="8"/>
+        <v>5.7029884167436144E-3</v>
+      </c>
+      <c r="G21" s="72">
+        <f t="shared" si="9"/>
+        <v>5.4477259185061388E-3</v>
+      </c>
+      <c r="H21" s="72">
+        <f t="shared" ref="H21:I26" si="13">LN(B21)</f>
+        <v>5.9320472770020231E-3</v>
+      </c>
+      <c r="I21" s="72">
+        <f t="shared" si="13"/>
+        <v>4.412758119012896E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A22" s="66" t="str">
+        <f>size_correction!D12</f>
+        <v>S2_ref_1</v>
+      </c>
+      <c r="B22" s="73">
+        <f t="shared" si="12"/>
+        <v>0.99629623559207692</v>
+      </c>
+      <c r="C22" s="73">
+        <f t="shared" si="12"/>
+        <v>0.99323347721175648</v>
+      </c>
+      <c r="D22" s="117">
+        <f>size_correction!AF12</f>
+        <v>0.99641187878361481</v>
+      </c>
+      <c r="E22" s="117">
+        <f>size_correction!AG12</f>
+        <v>0.99378130442821833</v>
+      </c>
+      <c r="F22" s="72">
+        <f t="shared" si="8"/>
+        <v>-3.5945739634335372E-3</v>
+      </c>
+      <c r="G22" s="72">
+        <f t="shared" si="9"/>
+        <v>-6.2381121983366193E-3</v>
+      </c>
+      <c r="H22" s="72">
+        <f t="shared" si="13"/>
+        <v>-3.7106403264231301E-3</v>
+      </c>
+      <c r="I22" s="72">
+        <f t="shared" si="13"/>
+        <v>-6.7895195007928941E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A23" s="66" t="str">
+        <f>size_correction!D13</f>
+        <v>B6_ref_1</v>
+      </c>
+      <c r="B23" s="73">
+        <f t="shared" si="12"/>
+        <v>0.99973991247556415</v>
+      </c>
+      <c r="C23" s="73">
+        <f t="shared" si="12"/>
+        <v>1.0020859042591113</v>
+      </c>
+      <c r="D23" s="117">
+        <f>size_correction!AF13</f>
+        <v>1.0001796848444418</v>
+      </c>
+      <c r="E23" s="117">
+        <f>size_correction!AG13</f>
+        <v>1.0040343543858852</v>
+      </c>
+      <c r="F23" s="72">
+        <f t="shared" si="8"/>
+        <v>1.7966870305363727E-4</v>
+      </c>
+      <c r="G23" s="72">
+        <f t="shared" si="9"/>
+        <v>4.0262381999534996E-3</v>
+      </c>
+      <c r="H23" s="72">
+        <f t="shared" si="13"/>
+        <v>-2.6012135306176113E-4</v>
+      </c>
+      <c r="I23" s="72">
+        <f t="shared" si="13"/>
+        <v>2.0837317813513596E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A24" s="66" t="str">
+        <f>size_correction!D14</f>
+        <v>ATM_EQ_SW_2</v>
+      </c>
+      <c r="B24" s="73">
         <f>M3</f>
         <v>1.0059496767117579</v>
       </c>
-      <c r="E16" s="73">
+      <c r="C24" s="73">
         <f>N3</f>
         <v>1.0044225086731247</v>
       </c>
-      <c r="F16" s="72">
-        <f t="shared" si="7"/>
-        <v>5.0812199816469847E-3</v>
-      </c>
-      <c r="G16" s="72">
-        <f t="shared" si="7"/>
-        <v>5.6953639452707308E-3</v>
-      </c>
-      <c r="H16" s="72">
-        <f t="shared" si="7"/>
+      <c r="D24" s="117">
+        <f>size_correction!AF14</f>
+        <v>1.0048805539160894</v>
+      </c>
+      <c r="E24" s="117">
+        <f>size_correction!AG14</f>
+        <v>1.0053599727245706</v>
+      </c>
+      <c r="F24" s="72">
+        <f t="shared" si="8"/>
+        <v>4.8686826228146419E-3</v>
+      </c>
+      <c r="G24" s="72">
+        <f t="shared" si="9"/>
+        <v>5.3456591947391319E-3</v>
+      </c>
+      <c r="H24" s="72">
+        <f t="shared" si="13"/>
         <v>5.9320472770020231E-3</v>
       </c>
-      <c r="I16" s="72">
-        <f t="shared" si="7"/>
+      <c r="I24" s="72">
+        <f t="shared" si="13"/>
         <v>4.412758119012896E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="66" t="str">
-        <f>size_correction!D10</f>
-        <v>DI</v>
-      </c>
-      <c r="B17" s="66">
-        <f>size_correction!AF10</f>
-        <v>0.99092722925764687</v>
-      </c>
-      <c r="C17" s="67">
-        <f>size_correction!AG10</f>
-        <v>1.0049378092932522</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="72">
-        <f t="shared" si="7"/>
-        <v>-9.1141789753790732E-3</v>
-      </c>
-      <c r="G17" s="72">
-        <f t="shared" si="7"/>
-        <v>4.9256582960658154E-3</v>
-      </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="66" t="str">
-        <f>size_correction!D11</f>
-        <v>ATM_EQ_SW_1</v>
-      </c>
-      <c r="B18" s="66">
-        <f>size_correction!AF11</f>
-        <v>1.0057192814133826</v>
-      </c>
-      <c r="C18" s="67">
-        <f>size_correction!AG11</f>
-        <v>1.0054625917600983</v>
-      </c>
-      <c r="D18" s="73">
+    <row r="25" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A25" s="66" t="str">
+        <f>size_correction!D15</f>
+        <v>ATM_EQ_SW_3</v>
+      </c>
+      <c r="B25" s="73">
         <f>M3</f>
         <v>1.0059496767117579</v>
       </c>
-      <c r="E18" s="73">
+      <c r="C25" s="73">
         <f>N3</f>
         <v>1.0044225086731247</v>
       </c>
-      <c r="F18" s="72">
-        <f t="shared" si="7"/>
-        <v>5.7029884167436144E-3</v>
-      </c>
-      <c r="G18" s="72">
-        <f t="shared" si="7"/>
-        <v>5.4477259185061388E-3</v>
-      </c>
-      <c r="H18" s="72">
-        <f t="shared" si="7"/>
+      <c r="D25" s="117">
+        <f>size_correction!AF15</f>
+        <v>1.0056387310168626</v>
+      </c>
+      <c r="E25" s="117">
+        <f>size_correction!AG15</f>
+        <v>1.0064676550191509</v>
+      </c>
+      <c r="F25" s="72">
+        <f t="shared" si="8"/>
+        <v>5.6228928832132777E-3</v>
+      </c>
+      <c r="G25" s="72">
+        <f t="shared" si="9"/>
+        <v>6.446829485110093E-3</v>
+      </c>
+      <c r="H25" s="72">
+        <f t="shared" si="13"/>
         <v>5.9320472770020231E-3</v>
       </c>
-      <c r="I18" s="72">
-        <f t="shared" si="7"/>
+      <c r="I25" s="72">
+        <f t="shared" si="13"/>
         <v>4.412758119012896E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="66" t="str">
-        <f>size_correction!D12</f>
-        <v>S2_ref_1</v>
-      </c>
-      <c r="B19" s="66">
-        <f>size_correction!AF12</f>
-        <v>0.99641187878361481</v>
-      </c>
-      <c r="C19" s="67">
-        <f>size_correction!AG12</f>
-        <v>0.99378130442821833</v>
-      </c>
-      <c r="D19" s="73">
-        <f t="shared" ref="D19:D20" si="9">M4</f>
+    <row r="26" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A26" s="66" t="str">
+        <f>size_correction!D16</f>
+        <v>S2_ref_2</v>
+      </c>
+      <c r="B26" s="73">
+        <f>M4</f>
         <v>0.99629623559207692</v>
       </c>
-      <c r="E19" s="73">
+      <c r="C26" s="73">
         <f>N4</f>
         <v>0.99323347721175648</v>
       </c>
-      <c r="F19" s="72">
-        <f t="shared" si="7"/>
-        <v>-3.5945739634335372E-3</v>
-      </c>
-      <c r="G19" s="72">
-        <f t="shared" si="7"/>
-        <v>-6.2381121983366193E-3</v>
-      </c>
-      <c r="H19" s="72">
-        <f t="shared" si="7"/>
-        <v>-3.7106403264231301E-3</v>
-      </c>
-      <c r="I19" s="72">
-        <f t="shared" si="7"/>
-        <v>-6.7895195007928941E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="66" t="str">
-        <f>size_correction!D13</f>
-        <v>B6_ref_1</v>
-      </c>
-      <c r="B20" s="66">
-        <f>size_correction!AF13</f>
-        <v>1.0001796848444418</v>
-      </c>
-      <c r="C20" s="67">
-        <f>size_correction!AG13</f>
-        <v>1.0040343543858852</v>
-      </c>
-      <c r="D20" s="73">
-        <f t="shared" si="9"/>
-        <v>0.99973991247556415</v>
-      </c>
-      <c r="E20" s="73">
-        <f>N5</f>
-        <v>1.0020859042591113</v>
-      </c>
-      <c r="F20" s="72">
-        <f t="shared" si="7"/>
-        <v>1.7966870305363727E-4</v>
-      </c>
-      <c r="G20" s="72">
-        <f t="shared" si="7"/>
-        <v>4.0262381999534996E-3</v>
-      </c>
-      <c r="H20" s="72">
-        <f t="shared" si="7"/>
-        <v>-2.6012135306176113E-4</v>
-      </c>
-      <c r="I20" s="72">
-        <f t="shared" si="7"/>
-        <v>2.0837317813513596E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="66" t="str">
-        <f>size_correction!D14</f>
-        <v>ATM_EQ_SW_2</v>
-      </c>
-      <c r="B21" s="66">
-        <f>size_correction!AF14</f>
-        <v>1.0048805539160894</v>
-      </c>
-      <c r="C21" s="67">
-        <f>size_correction!AG14</f>
-        <v>1.0053599727245706</v>
-      </c>
-      <c r="D21" s="73">
-        <f>M3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="E21" s="73">
-        <f>N3</f>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="F21" s="72">
-        <f t="shared" si="7"/>
-        <v>4.8686826228146419E-3</v>
-      </c>
-      <c r="G21" s="72">
-        <f t="shared" si="7"/>
-        <v>5.3456591947391319E-3</v>
-      </c>
-      <c r="H21" s="72">
-        <f t="shared" si="7"/>
-        <v>5.9320472770020231E-3</v>
-      </c>
-      <c r="I21" s="72">
-        <f t="shared" si="7"/>
-        <v>4.412758119012896E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="66" t="str">
-        <f>size_correction!D15</f>
-        <v>ATM_EQ_SW_3</v>
-      </c>
-      <c r="B22" s="66">
-        <f>size_correction!AF15</f>
-        <v>1.0056387310168626</v>
-      </c>
-      <c r="C22" s="67">
-        <f>size_correction!AG15</f>
-        <v>1.0064676550191509</v>
-      </c>
-      <c r="D22" s="73">
-        <f>M3</f>
-        <v>1.0059496767117579</v>
-      </c>
-      <c r="E22" s="73">
-        <f>N3</f>
-        <v>1.0044225086731247</v>
-      </c>
-      <c r="F22" s="72">
-        <f t="shared" si="7"/>
-        <v>5.6228928832132777E-3</v>
-      </c>
-      <c r="G22" s="72">
-        <f t="shared" si="7"/>
-        <v>6.446829485110093E-3</v>
-      </c>
-      <c r="H22" s="72">
-        <f t="shared" si="7"/>
-        <v>5.9320472770020231E-3</v>
-      </c>
-      <c r="I22" s="72">
-        <f t="shared" si="7"/>
-        <v>4.412758119012896E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="66" t="str">
-        <f>size_correction!D16</f>
-        <v>S2_ref_2</v>
-      </c>
-      <c r="B23" s="66">
+      <c r="D26" s="117">
         <f>size_correction!AF16</f>
         <v>0.99633327484903467</v>
       </c>
-      <c r="C23" s="67">
+      <c r="E26" s="117">
         <f>size_correction!AG16</f>
         <v>0.99474403428411884</v>
       </c>
-      <c r="D23" s="73">
-        <f>M4</f>
-        <v>0.99629623559207692</v>
-      </c>
-      <c r="E23" s="73">
-        <f>N4</f>
-        <v>0.99323347721175648</v>
-      </c>
-      <c r="F23" s="72">
-        <f t="shared" si="7"/>
+      <c r="F26" s="72">
+        <f t="shared" si="8"/>
         <v>-3.6734640658408848E-3</v>
       </c>
-      <c r="G23" s="72">
-        <f t="shared" si="7"/>
+      <c r="G26" s="72">
+        <f t="shared" si="9"/>
         <v>-5.2698268942697113E-3</v>
       </c>
-      <c r="H23" s="72">
-        <f t="shared" si="7"/>
+      <c r="H26" s="72">
+        <f t="shared" si="13"/>
         <v>-3.7106403264231301E-3</v>
       </c>
-      <c r="I23" s="72">
-        <f t="shared" si="7"/>
+      <c r="I26" s="72">
+        <f t="shared" si="13"/>
         <v>-6.7895195007928941E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="66" t="str">
+    <row r="27" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="A27" s="66" t="str">
         <f>size_correction!D17</f>
         <v>DI</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="117">
         <f>size_correction!AF17</f>
         <v>0.99349493237592013</v>
       </c>
-      <c r="C24" s="67">
+      <c r="E27" s="117">
         <f>size_correction!AG17</f>
         <v>1.0044001925480899</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="72">
-        <f t="shared" si="7"/>
+      <c r="F27" s="72">
+        <f t="shared" si="8"/>
         <v>-6.5263177824188435E-3</v>
       </c>
-      <c r="G24" s="72">
-        <f t="shared" si="7"/>
+      <c r="G27" s="72">
+        <f t="shared" si="9"/>
         <v>4.3905400058642007E-3</v>
       </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" thickTop="1">
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="67"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="A8:C8"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A9B09D-1008-4441-AE31-949281019A29}">
+  <dimension ref="A1:Y14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1">
+        <v>3.7990000000000002E-4</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2">
+        <v>2.0052E-3</v>
+      </c>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="123" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" s="119"/>
+      <c r="Y4" s="119"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="73">
+        <v>3.73422105E-3</v>
+      </c>
+      <c r="B5" s="73">
+        <v>3.6643675499999999E-3</v>
+      </c>
+      <c r="C5" s="73">
+        <v>3.7689117349450109E-3</v>
+      </c>
+      <c r="D5" s="73">
+        <v>7.7934998191650307E-3</v>
+      </c>
+      <c r="E5" s="118">
+        <v>2.1164798861162191E-3</v>
+      </c>
+      <c r="F5" s="73">
+        <v>0</v>
+      </c>
+      <c r="G5" s="73">
+        <v>3.6750148213719339E-3</v>
+      </c>
+      <c r="H5" s="73">
+        <v>3.6759553300949816E-3</v>
+      </c>
+      <c r="I5" s="73">
+        <v>3.7228017752489761E-3</v>
+      </c>
+      <c r="J5" s="73">
+        <v>7.7441640342372194E-3</v>
+      </c>
+      <c r="K5" s="118">
+        <v>2.109788966545483E-3</v>
+      </c>
+      <c r="L5" s="73">
+        <v>0</v>
+      </c>
+      <c r="M5" s="72" cm="1">
+        <f t="array" ref="M5">Rsolve18(E5,10,D5,E5,F5,$N$3,$N$2,$N$1)</f>
+        <v>2.0998927031414612E-3</v>
+      </c>
+      <c r="N5" s="72" cm="1">
+        <f t="array" ref="N5">Rsolve18(K5,10,J5,K5,L5,$N$3,$N$2,$N$1)</f>
+        <v>2.0934050628434882E-3</v>
+      </c>
+      <c r="O5" s="72">
+        <f>$N$1*(M5/$N$2)^$N$3</f>
+        <v>3.8905377024749663E-4</v>
+      </c>
+      <c r="P5" s="72">
+        <f>$N$1*(N5/$N$2)^$N$3</f>
+        <v>3.8843308121852137E-4</v>
+      </c>
+      <c r="Q5" s="91">
+        <f>(A5+R5*B5+A5*B5-(C5-O5)*(1+(1-R5)*B5))/(A5*(1+C5-O5))</f>
+        <v>0.20872209614007559</v>
+      </c>
+      <c r="R5" s="91">
+        <f>((A5-C5+O5)*(1+B5)/(A5*(1+C5-O5)) - (G5-I5+P5)*(1+H5)/(G5*(1+I5-P5)))/(H5/G5-B5/A5)</f>
+        <v>0.1159684103244177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="73">
+        <v>3.73422105E-3</v>
+      </c>
+      <c r="B6" s="73">
+        <v>3.6643675499999999E-3</v>
+      </c>
+      <c r="C6" s="73">
+        <v>3.7689117349450109E-3</v>
+      </c>
+      <c r="D6" s="73">
+        <v>7.7934998191650307E-3</v>
+      </c>
+      <c r="E6" s="118">
+        <v>2.1164798861162191E-3</v>
+      </c>
+      <c r="F6" s="73">
+        <v>0</v>
+      </c>
+      <c r="G6" s="73">
+        <v>3.6750148213719339E-3</v>
+      </c>
+      <c r="H6" s="73">
+        <v>3.6759553300949816E-3</v>
+      </c>
+      <c r="I6" s="73">
+        <v>3.7199285353648262E-3</v>
+      </c>
+      <c r="J6" s="73">
+        <v>7.7342329865834319E-3</v>
+      </c>
+      <c r="K6" s="118">
+        <v>2.105997079923158E-3</v>
+      </c>
+      <c r="L6" s="73">
+        <v>0</v>
+      </c>
+      <c r="M6" s="72" cm="1">
+        <f t="array" ref="M6">Rsolve18(E6,10,D6,E6,F6,$N$3,$N$2,$N$1)</f>
+        <v>2.0998927031414612E-3</v>
+      </c>
+      <c r="N6" s="72" cm="1">
+        <f t="array" ref="N6">Rsolve18(K6,10,J6,K6,L6,$N$3,$N$2,$N$1)</f>
+        <v>2.0896547141455901E-3</v>
+      </c>
+      <c r="O6" s="72">
+        <f>$N$1*(M6/$N$2)^$N$3</f>
+        <v>3.8905377024749663E-4</v>
+      </c>
+      <c r="P6" s="72">
+        <f>$N$1*(N6/$N$2)^$N$3</f>
+        <v>3.8807385113215798E-4</v>
+      </c>
+      <c r="Q6" s="91">
+        <f>(A6+R6*B6+A6*B6-(C6-O6)*(1+(1-R6)*B6))/(A6*(1+C6-O6))</f>
+        <v>0.17329677501906443</v>
+      </c>
+      <c r="R6" s="91">
+        <f>((A6-C6+O6)*(1+B6)/(A6*(1+C6-O6)) - (G6-I6+P6)*(1+H6)/(G6*(1+I6-P6)))/(H6/G6-B6/A6)</f>
+        <v>7.9867779580351114E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="73">
+        <v>3.73422105E-3</v>
+      </c>
+      <c r="B7" s="73">
+        <v>3.6643675499999999E-3</v>
+      </c>
+      <c r="C7" s="73">
+        <v>3.770760540076305E-3</v>
+      </c>
+      <c r="D7" s="73">
+        <v>7.7827523186501267E-3</v>
+      </c>
+      <c r="E7" s="73">
+        <v>2.1125489546459449E-3</v>
+      </c>
+      <c r="F7" s="73">
+        <v>0</v>
+      </c>
+      <c r="G7" s="73">
+        <v>3.6750148213719339E-3</v>
+      </c>
+      <c r="H7" s="73">
+        <v>3.6759553300949816E-3</v>
+      </c>
+      <c r="I7" s="73">
+        <v>3.7228017752489761E-3</v>
+      </c>
+      <c r="J7" s="73">
+        <v>7.7441640342372194E-3</v>
+      </c>
+      <c r="K7" s="73">
+        <v>2.109788966545483E-3</v>
+      </c>
+      <c r="L7" s="73">
+        <v>0</v>
+      </c>
+      <c r="M7" s="72" cm="1">
+        <f t="array" ref="M7">Rsolve18(E7,10,D7,E7,F7,$N$3,$N$2,$N$1)</f>
+        <v>2.096006943235472E-3</v>
+      </c>
+      <c r="N7" s="72" cm="1">
+        <f t="array" ref="N7">Rsolve18(K7,10,J7,K7,L7,$N$3,$N$2,$N$1)</f>
+        <v>2.0934050628434882E-3</v>
+      </c>
+      <c r="O7" s="72">
+        <f t="shared" ref="O7:O11" si="0">$N$1*(M7/$N$2)^$N$3</f>
+        <v>3.8868212138784054E-4</v>
+      </c>
+      <c r="P7" s="72">
+        <f t="shared" ref="P7:P11" si="1">$N$1*(N7/$N$2)^$N$3</f>
+        <v>3.8843308121852137E-4</v>
+      </c>
+      <c r="Q7" s="91">
+        <f t="shared" ref="Q7:Q11" si="2">(A7+R7*B7+A7*B7-(C7-O7)*(1+(1-R7)*B7))/(A7*(1+C7-O7))</f>
+        <v>0.17733587859609368</v>
+      </c>
+      <c r="R7" s="91">
+        <f t="shared" ref="R7:R11" si="3">((A7-C7+O7)*(1+B7)/(A7*(1+C7-O7)) - (G7-I7+P7)*(1+H7)/(G7*(1+I7-P7)))/(H7/G7-B7/A7)</f>
+        <v>8.4590223076979915E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="73">
+        <v>3.73422105E-3</v>
+      </c>
+      <c r="B8" s="73">
+        <v>3.6643675499999999E-3</v>
+      </c>
+      <c r="C8" s="73">
+        <v>3.770760540076305E-3</v>
+      </c>
+      <c r="D8" s="73">
+        <v>7.7827523186501267E-3</v>
+      </c>
+      <c r="E8" s="73">
+        <v>2.1125489546459449E-3</v>
+      </c>
+      <c r="F8" s="73">
+        <v>0</v>
+      </c>
+      <c r="G8" s="73">
+        <v>3.6750148213719339E-3</v>
+      </c>
+      <c r="H8" s="73">
+        <v>3.6759553300949816E-3</v>
+      </c>
+      <c r="I8" s="73">
+        <v>3.7199285353648262E-3</v>
+      </c>
+      <c r="J8" s="73">
+        <v>7.7342329865834319E-3</v>
+      </c>
+      <c r="K8" s="73">
+        <v>2.105997079923158E-3</v>
+      </c>
+      <c r="L8" s="73">
+        <v>0</v>
+      </c>
+      <c r="M8" s="72" cm="1">
+        <f t="array" ref="M8">Rsolve18(E8,10,D8,E8,F8,$N$3,$N$2,$N$1)</f>
+        <v>2.096006943235472E-3</v>
+      </c>
+      <c r="N8" s="72" cm="1">
+        <f t="array" ref="N8">Rsolve18(K8,10,J8,K8,L8,$N$3,$N$2,$N$1)</f>
+        <v>2.0896547141455901E-3</v>
+      </c>
+      <c r="O8" s="72">
+        <f t="shared" si="0"/>
+        <v>3.8868212138784054E-4</v>
+      </c>
+      <c r="P8" s="72">
+        <f t="shared" si="1"/>
+        <v>3.8807385113215798E-4</v>
+      </c>
+      <c r="Q8" s="91">
+        <f t="shared" si="2"/>
+        <v>0.14191055747508233</v>
+      </c>
+      <c r="R8" s="91">
+        <f t="shared" si="3"/>
+        <v>4.8489592332913341E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="73">
+        <v>3.73422105E-3</v>
+      </c>
+      <c r="B9" s="73">
+        <v>3.6643675499999999E-3</v>
+      </c>
+      <c r="C9" s="73">
+        <v>3.774157409185728E-3</v>
+      </c>
+      <c r="D9" s="73">
+        <v>7.7878737502717673E-3</v>
+      </c>
+      <c r="E9" s="73">
+        <v>2.11205838421125E-3</v>
+      </c>
+      <c r="F9" s="73">
+        <v>0</v>
+      </c>
+      <c r="G9" s="73">
+        <v>3.6750148213719339E-3</v>
+      </c>
+      <c r="H9" s="73">
+        <v>3.6759553300949816E-3</v>
+      </c>
+      <c r="I9" s="73">
+        <v>3.7242631653031061E-3</v>
+      </c>
+      <c r="J9" s="73">
+        <v>7.742496580265385E-3</v>
+      </c>
+      <c r="K9" s="73">
+        <v>2.1092446228371492E-3</v>
+      </c>
+      <c r="L9" s="73">
+        <v>0</v>
+      </c>
+      <c r="M9" s="72" cm="1">
+        <f t="array" ref="M9">Rsolve18(E9,10,D9,E9,F9,$N$3,$N$2,$N$1)</f>
+        <v>2.0954956035312334E-3</v>
+      </c>
+      <c r="N9" s="72" cm="1">
+        <f t="array" ref="N9">Rsolve18(K9,10,J9,K9,L9,$N$3,$N$2,$N$1)</f>
+        <v>2.0928676680247141E-3</v>
+      </c>
+      <c r="O9" s="72">
+        <f t="shared" si="0"/>
+        <v>3.886331900931322E-4</v>
+      </c>
+      <c r="P9" s="72">
+        <f t="shared" si="1"/>
+        <v>3.883816255649651E-4</v>
+      </c>
+      <c r="Q9" s="91">
+        <f t="shared" si="2"/>
+        <v>0.14994727862657609</v>
+      </c>
+      <c r="R9" s="91">
+        <f t="shared" si="3"/>
+        <v>5.7620461575761298E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="73">
+        <v>3.73422105E-3</v>
+      </c>
+      <c r="B10" s="73">
+        <v>3.6643675499999999E-3</v>
+      </c>
+      <c r="C10" s="73">
+        <v>3.7661587198913019E-3</v>
+      </c>
+      <c r="D10" s="73">
+        <v>7.7810024465572326E-3</v>
+      </c>
+      <c r="E10" s="73">
+        <v>2.1118562233900968E-3</v>
+      </c>
+      <c r="F10" s="73">
+        <v>0</v>
+      </c>
+      <c r="G10" s="73">
+        <v>3.6750148213719339E-3</v>
+      </c>
+      <c r="H10" s="73">
+        <v>3.6759553300949816E-3</v>
+      </c>
+      <c r="I10" s="73">
+        <v>3.7242631653031061E-3</v>
+      </c>
+      <c r="J10" s="73">
+        <v>7.742496580265385E-3</v>
+      </c>
+      <c r="K10" s="73">
+        <v>2.1092446228371492E-3</v>
+      </c>
+      <c r="L10" s="73">
+        <v>0</v>
+      </c>
+      <c r="M10" s="72" cm="1">
+        <f t="array" ref="M10">Rsolve18(E10,10,D10,E10,F10,$N$3,$N$2,$N$1)</f>
+        <v>2.0953215776226782E-3</v>
+      </c>
+      <c r="N10" s="72" cm="1">
+        <f t="array" ref="N10">Rsolve18(K10,10,J10,K10,L10,$N$3,$N$2,$N$1)</f>
+        <v>2.0928676680247141E-3</v>
+      </c>
+      <c r="O10" s="72">
+        <f t="shared" si="0"/>
+        <v>3.8861653582803027E-4</v>
+      </c>
+      <c r="P10" s="72">
+        <f t="shared" si="1"/>
+        <v>3.883816255649651E-4</v>
+      </c>
+      <c r="Q10" s="91">
+        <f t="shared" si="2"/>
+        <v>0.26277357755180591</v>
+      </c>
+      <c r="R10" s="91">
+        <f t="shared" si="3"/>
+        <v>0.17041789341507743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="73">
+        <v>3.73422105E-3</v>
+      </c>
+      <c r="B11" s="73">
+        <v>3.6643675499999999E-3</v>
+      </c>
+      <c r="C11" s="73">
+        <v>3.7730126315774341E-3</v>
+      </c>
+      <c r="D11" s="73">
+        <v>7.7872138239604956E-3</v>
+      </c>
+      <c r="E11" s="73">
+        <v>2.114038303996214E-3</v>
+      </c>
+      <c r="F11" s="73">
+        <v>0</v>
+      </c>
+      <c r="G11" s="73">
+        <v>3.6750148213719339E-3</v>
+      </c>
+      <c r="H11" s="73">
+        <v>3.6759553300949816E-3</v>
+      </c>
+      <c r="I11" s="73">
+        <v>3.7242631653031061E-3</v>
+      </c>
+      <c r="J11" s="73">
+        <v>7.742496580265385E-3</v>
+      </c>
+      <c r="K11" s="73">
+        <v>2.1092446228371492E-3</v>
+      </c>
+      <c r="L11" s="73">
+        <v>0</v>
+      </c>
+      <c r="M11" s="72" cm="1">
+        <f t="array" ref="M11">Rsolve18(E11,10,D11,E11,F11,$N$3,$N$2,$N$1)</f>
+        <v>2.0974775933835267E-3</v>
+      </c>
+      <c r="N11" s="72" cm="1">
+        <f t="array" ref="N11">Rsolve18(K11,10,J11,K11,L11,$N$3,$N$2,$N$1)</f>
+        <v>2.0928676680247141E-3</v>
+      </c>
+      <c r="O11" s="72">
+        <f t="shared" si="0"/>
+        <v>3.888228191523488E-4</v>
+      </c>
+      <c r="P11" s="72">
+        <f t="shared" si="1"/>
+        <v>3.883816255649651E-4</v>
+      </c>
+      <c r="Q11" s="91">
+        <f t="shared" si="2"/>
+        <v>0.16880903099141051</v>
+      </c>
+      <c r="R11" s="91">
+        <f t="shared" si="3"/>
+        <v>7.6477388081454753E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="Q13" s="91">
+        <f>AVERAGE(Q5:Q11)</f>
+        <v>0.18325645634287266</v>
+      </c>
+      <c r="R13" s="91">
+        <f>AVERAGE(R5:R11)</f>
+        <v>9.0490249769565087E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="Q14" s="91">
+        <f>STDEV(Q5:Q11)</f>
+        <v>4.1096294725866948E-2</v>
+      </c>
+      <c r="R14" s="91">
+        <f>STDEV(R5:R11)</f>
+        <v>4.1283674266355812E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29A51B0-D147-5349-B907-3D4412BB9071}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="87">
+        <f>B12</f>
+        <v>0.4623614635092998</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="87">
+        <f>C12</f>
+        <v>0.10975712247295455</v>
+      </c>
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="50">
+        <f>1/B2</f>
+        <v>2.1628100067208269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="87">
+        <f>B13</f>
+        <v>8.0186890671505306E-3</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="87">
+        <f>C13</f>
+        <v>0.30903560626553517</v>
+      </c>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="87">
+        <v>1.026</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="E4" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4">
+        <v>1.002</v>
+      </c>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="91">
+        <f>1/B4</f>
+        <v>0.97465886939571145</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="E5" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="91">
+        <f>1/F4</f>
+        <v>1.0018032458425166</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="91">
+        <f>1/I4</f>
+        <v>0.99800399201596801</v>
+      </c>
+      <c r="L5" s="88"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="88"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="94">
+        <f>B5/1000</f>
+        <v>9.7465886939571145E-4</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="E6" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="94">
+        <f>F5/1000</f>
+        <v>1.0018032458425166E-3</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="94">
+        <f>I5/1000</f>
+        <v>9.9800399201596798E-4</v>
+      </c>
+      <c r="L6" s="88"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="93"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="L7" s="88"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="88"/>
+    </row>
+    <row r="8" spans="1:18" ht="18">
+      <c r="L8" s="88"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="88"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="M9" s="98"/>
+      <c r="N9" s="88"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="103"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="88"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="85"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="B12">
+        <v>0.4623614635092998</v>
+      </c>
+      <c r="C12">
+        <v>0.10975712247295455</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13">
+        <v>8.0186890671505306E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.30903560626553517</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14">
+        <v>0.99342642117731605</v>
+      </c>
+      <c r="C14" s="50">
+        <v>0.96347094633189312</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15">
+        <v>3324.7309959200538</v>
+      </c>
+      <c r="C15" s="50">
+        <v>22</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16">
+        <v>3086.2688691129169</v>
+      </c>
+      <c r="C16">
+        <v>20.422077817364819</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="50"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="106"/>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="G18" s="50"/>
+      <c r="I18" s="107"/>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="J20" s="108"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>